--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\py\work_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85CD8ECE-D353-4CAD-A0CA-91F3B298385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B905E-A545-4044-A111-2CDE92279D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{46AE660E-407F-41D0-9AC1-C58B2D52C9E3}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{46AE660E-407F-41D0-9AC1-C58B2D52C9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,71 +47,74 @@
     <t>露肩短袖t恤女设计感小众2022年夏季新款修身显瘦别致短款上衣ins</t>
   </si>
   <si>
+    <t>网红露肩钻链T恤女初秋2021新款设计感小众修身别致打底衫ins上衣</t>
+  </si>
+  <si>
+    <t>连衣裙2022夏季新款女装收腰显瘦气质修身黑色网纱拼接长裙子潮流</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/753de39226edf2f690ea8d5aa13ad6f4_03d2f154d8d2af45d0e3edc257101e2f.jpg</t>
+  </si>
+  <si>
+    <t>春夏新款设计感小众ins潮</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/089beb7124da75be9ea45b1e28b5be83_67dbdfa5a344d253fb5cff7ce3954a54.jpg</t>
+  </si>
+  <si>
+    <t>设计感不规则露肩短袖t恤女宽松纯白色半袖黑色斜肩半袖上衣夏天</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/34e0b0f8f659c93ff5aa67bce241a7f7_f635c78ddc9ae73ded3581698988b41a.jpg</t>
+  </si>
+  <si>
+    <t>夏季多巴胺穿搭盐系轻熟性感纯欲风甜辣妹上衣裙子时尚两件套装女</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/dcc7bba5105b643f2afebca3ca156393_44092866657d4da024ce61b93f619b75.jpg</t>
+  </si>
+  <si>
+    <t>2021早秋新款一字肩长袖显瘦上衣女设计感修身t恤挂脖百搭体恤潮</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao_dataline/dfbd16e6cd1f98c7d81af82ea7b25f11.jpg</t>
+  </si>
+  <si>
+    <t>BettyChow 秋装 露肩针织衫上衣长袖套头毛衣显瘦百搭薄款</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/8ba9f0a3ddca937c6cab7a324fa751d1_b53add19d12e4cb02b2d7192f84abf75.jpg</t>
+  </si>
+  <si>
+    <t>蔓柔~镂空纯欲风针织裙女早春新款辣妹露肩短上衣包臀裙两件套装</t>
+  </si>
+  <si>
+    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/fa6ad54c5ee5d95be336d10c7da7e746_5c93fc16049c56ef3a4d337adee0d3a9.jpg</t>
+  </si>
+  <si>
+    <t>TOUCH MISS高端时髦2022夏新款宽松韩版上衣拼接假两件条纹T恤女</t>
+  </si>
+  <si>
+    <t>2021夏季新款时尚宽松露肩短袖T恤女设计感小众百搭洋气系带上衣</t>
+  </si>
+  <si>
     <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/00ff249e2a8b54ca7f8f725bdcd901dc_48a955afc2e5d501ea6520a10857e26a.jpg</t>
-  </si>
-  <si>
-    <t>网红露肩钻链T恤女初秋2021新款设计感小众修身别致打底衫ins上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/a6c3db9b0cb74f2c214d7dc9c5b9e2aa_ad1591b7098425e38ec9a498ea9b89b9.jpg</t>
-  </si>
-  <si>
-    <t>连衣裙2022夏季新款女装收腰显瘦气质修身黑色网纱拼接长裙子潮流</t>
-  </si>
-  <si>
-    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/753de39226edf2f690ea8d5aa13ad6f4_03d2f154d8d2af45d0e3edc257101e2f.jpg</t>
-  </si>
-  <si>
-    <t>春夏新款设计感小众ins潮</t>
-  </si>
-  <si>
-    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/089beb7124da75be9ea45b1e28b5be83_67dbdfa5a344d253fb5cff7ce3954a54.jpg</t>
-  </si>
-  <si>
-    <t>设计感不规则露肩短袖t恤女宽松纯白色半袖黑色斜肩半袖上衣夏天</t>
-  </si>
-  <si>
-    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/34e0b0f8f659c93ff5aa67bce241a7f7_f635c78ddc9ae73ded3581698988b41a.jpg</t>
-  </si>
-  <si>
-    <t>夏季多巴胺穿搭盐系轻熟性感纯欲风甜辣妹上衣裙子时尚两件套装女</t>
-  </si>
-  <si>
-    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/dcc7bba5105b643f2afebca3ca156393_44092866657d4da024ce61b93f619b75.jpg</t>
-  </si>
-  <si>
-    <t>2021早秋新款一字肩长袖显瘦上衣女设计感修身t恤挂脖百搭体恤潮</t>
-  </si>
-  <si>
-    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao_dataline/dfbd16e6cd1f98c7d81af82ea7b25f11.jpg</t>
-  </si>
-  <si>
-    <t>BettyChow 秋装 露肩针织衫上衣长袖套头毛衣显瘦百搭薄款</t>
-  </si>
-  <si>
-    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/8ba9f0a3ddca937c6cab7a324fa751d1_b53add19d12e4cb02b2d7192f84abf75.jpg</t>
-  </si>
-  <si>
-    <t>蔓柔~镂空纯欲风针织裙女早春新款辣妹露肩短上衣包臀裙两件套装</t>
-  </si>
-  <si>
-    <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/fa6ad54c5ee5d95be336d10c7da7e746_5c93fc16049c56ef3a4d337adee0d3a9.jpg</t>
-  </si>
-  <si>
-    <t>TOUCH MISS高端时髦2022夏新款宽松韩版上衣拼接假两件条纹T恤女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://zhiyi-image.oss-cn-hangzhou.aliyuncs.com/data_infra/taobao/cbe56acbd393902a67c841d769045f37_0371e7094828fcbd90d64687e250ff35.jpg</t>
-  </si>
-  <si>
-    <t>2021夏季新款时尚宽松露肩短袖T恤女设计感小众百搭洋气系带上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +125,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -145,19 +157,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,10 +489,13 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="36.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
@@ -501,14 +521,14 @@
       <c r="A2" s="1">
         <v>654679657071</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -521,14 +541,14 @@
       <c r="A3" s="1">
         <v>670945967101</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -542,13 +562,13 @@
         <v>703619127762</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -562,13 +582,13 @@
         <v>729429043905</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -582,13 +602,13 @@
         <v>725776228480</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -602,13 +622,13 @@
         <v>652268722989</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -622,13 +642,13 @@
         <v>574950231786</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -642,13 +662,13 @@
         <v>668191348410</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -662,13 +682,13 @@
         <v>671235277825</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -681,24 +701,28 @@
       <c r="A11" s="1">
         <v>643445513941</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{18D70147-3FD6-4D03-8B8C-250D0487DBEC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{84006EA6-E1D3-4B0E-87E0-2E172D673479}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{986BB3EC-1190-475D-9027-5219067FF9E6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>